--- a/鼎济游戏--无尽之巢--数值策划.xlsx
+++ b/鼎济游戏--无尽之巢--数值策划.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="无尽之巢" sheetId="1" r:id="rId1"/>
+    <sheet name="糖果传奇" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,9 +16,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
-  <si>
-    <t>1元</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+  <si>
+    <t>赠送10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>增强</t>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>彩球</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+  </si>
+  <si>
+    <t>钢球</t>
+  </si>
+  <si>
+    <t>魔法球</t>
+  </si>
+  <si>
+    <t>击退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球+炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰球+钢球+魔法球+击退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球+钢球+击退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -26,72 +139,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2250金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送20%</t>
+    <t>五次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎济游戏--无尽之巢--数值策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡及奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏到88关总共将获得4000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续关卡正在调整中。。。更多精彩，尽请期待！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩糖炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条纹和包装糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果冻鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-  </si>
-  <si>
-    <t>增强</t>
-  </si>
-  <si>
-    <t>购买</t>
-  </si>
-  <si>
-    <t>彩球</t>
-  </si>
-  <si>
-    <t>炸弹</t>
-  </si>
-  <si>
-    <t>钢球</t>
-  </si>
-  <si>
-    <t>魔法球</t>
-  </si>
-  <si>
-    <t>击退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,107 +223,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩球+炸弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰球+钢球+魔法球+击退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩球+钢球+击退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼎济游戏--无尽之巢--数值策划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡及奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏到88关总共将获得4000金币</t>
+    <t>糖果银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送40%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +270,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -437,22 +476,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,14 +567,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,8 +591,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -788,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R28"/>
+  <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,124 +924,123 @@
     <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
-        <v>11</v>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
-        <v>14</v>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>320</v>
@@ -930,12 +1048,12 @@
       <c r="D6" s="1">
         <v>120</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>210</v>
@@ -943,27 +1061,27 @@
       <c r="I6" s="1">
         <v>168</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1">
+        <v>600</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
-        <v>15</v>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>240</v>
@@ -971,12 +1089,12 @@
       <c r="D7" s="1">
         <v>90</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1">
         <v>660</v>
@@ -984,25 +1102,31 @@
       <c r="I7" s="1">
         <v>528</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>2</v>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1">
+        <v>330</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="1">
+        <v>1980</v>
+      </c>
+      <c r="P7" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="12" t="s">
-        <v>16</v>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>480</v>
@@ -1010,12 +1134,12 @@
       <c r="D8" s="1">
         <v>360</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1">
         <v>960</v>
@@ -1023,25 +1147,31 @@
       <c r="I8" s="1">
         <v>768</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="1">
+        <v>720</v>
+      </c>
+      <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="P8" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="12" t="s">
-        <v>34</v>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>360</v>
@@ -1049,30 +1179,36 @@
       <c r="D9" s="1">
         <v>180</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1">
+        <v>2250</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="1">
+        <v>11400</v>
+      </c>
+      <c r="P9" s="1">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B10" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>480</v>
@@ -1080,24 +1216,30 @@
       <c r="D10" s="1">
         <v>240</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="1">
+        <v>23520</v>
+      </c>
+      <c r="P10" s="1">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
-        <v>18</v>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>360</v>
@@ -1105,53 +1247,63 @@
       <c r="D11" s="1">
         <v>180</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="1">
+        <v>49200</v>
+      </c>
+      <c r="P11" s="1">
+        <v>328</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1161,713 +1313,801 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="12">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D19" s="1">
         <v>12</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>23</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45</v>
-      </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1">
-        <v>56</v>
-      </c>
-      <c r="M15" s="1">
-        <v>6</v>
-      </c>
-      <c r="N15" s="1">
-        <v>67</v>
-      </c>
-      <c r="O15" s="1">
-        <v>6</v>
-      </c>
-      <c r="P15" s="1">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>9</v>
-      </c>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="12">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>46</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3</v>
-      </c>
-      <c r="L16" s="1">
-        <v>57</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>68</v>
-      </c>
-      <c r="O16" s="1">
-        <v>7</v>
-      </c>
-      <c r="P16" s="1">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>3</v>
-      </c>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B17" s="12">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>36</v>
-      </c>
-      <c r="I17" s="1">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1">
-        <v>47</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
-      <c r="L17" s="1">
-        <v>58</v>
-      </c>
-      <c r="M17" s="1">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1">
-        <v>69</v>
-      </c>
-      <c r="O17" s="1">
-        <v>7</v>
-      </c>
-      <c r="P17" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>7</v>
-      </c>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B18" s="12">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>37</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>48</v>
-      </c>
-      <c r="K18" s="1">
-        <v>6</v>
-      </c>
-      <c r="L18" s="1">
-        <v>59</v>
-      </c>
-      <c r="M18" s="1">
-        <v>7</v>
-      </c>
-      <c r="N18" s="1">
-        <v>70</v>
-      </c>
-      <c r="O18" s="1">
-        <v>8</v>
-      </c>
-      <c r="P18" s="1">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>8</v>
-      </c>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>16</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M19" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="1">
-        <v>8</v>
-      </c>
-      <c r="R19" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="12">
-        <v>6</v>
+      <c r="B20" s="6">
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
-        <v>39</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
       <c r="J20" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K20" s="1">
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>68</v>
+      </c>
+      <c r="O20" s="1">
         <v>7</v>
       </c>
-      <c r="N20" s="1">
-        <v>72</v>
-      </c>
-      <c r="O20" s="1">
-        <v>8</v>
-      </c>
       <c r="P20" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="1">
-        <v>8</v>
-      </c>
-      <c r="R20" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="12">
-        <v>7</v>
+      <c r="B21" s="6">
+        <v>3</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
       </c>
       <c r="J21" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O21" s="1">
         <v>7</v>
       </c>
       <c r="P21" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="1">
-        <v>10</v>
-      </c>
-      <c r="R21" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="12">
+      <c r="B22" s="6">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>37</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>48</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1">
+        <v>59</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1">
+        <v>70</v>
+      </c>
+      <c r="O22" s="1">
         <v>8</v>
       </c>
-      <c r="C22" s="1">
+      <c r="P22" s="1">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>8</v>
+      </c>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="6">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1">
-        <v>41</v>
-      </c>
-      <c r="I22" s="1">
-        <v>3</v>
-      </c>
-      <c r="J22" s="1">
-        <v>52</v>
-      </c>
-      <c r="K22" s="1">
-        <v>5</v>
-      </c>
-      <c r="L22" s="1">
-        <v>63</v>
-      </c>
-      <c r="M22" s="1">
-        <v>6</v>
-      </c>
-      <c r="N22" s="1">
-        <v>74</v>
-      </c>
-      <c r="O22" s="1">
-        <v>5</v>
-      </c>
-      <c r="P22" s="1">
-        <v>85</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>7</v>
-      </c>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="12">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
       <c r="D23" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1">
         <v>5</v>
       </c>
       <c r="J23" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L23" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M23" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O23" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P23" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="1">
         <v>8</v>
       </c>
-      <c r="R23" s="11"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="12">
-        <v>10</v>
+      <c r="B24" s="6">
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>39</v>
+      </c>
+      <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="1">
-        <v>32</v>
-      </c>
-      <c r="G24" s="1">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1">
-        <v>43</v>
-      </c>
-      <c r="I24" s="1">
-        <v>5</v>
-      </c>
       <c r="J24" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L24" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M24" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N24" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P24" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="1">
         <v>8</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="12">
+      <c r="B25" s="6">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>51</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>62</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>73</v>
+      </c>
+      <c r="O25" s="1">
+        <v>7</v>
+      </c>
+      <c r="P25" s="1">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>10</v>
+      </c>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="6">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>41</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>52</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>63</v>
+      </c>
+      <c r="M26" s="1">
+        <v>6</v>
+      </c>
+      <c r="N26" s="1">
+        <v>74</v>
+      </c>
+      <c r="O26" s="1">
+        <v>5</v>
+      </c>
+      <c r="P26" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>7</v>
+      </c>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="6">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>31</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>42</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>53</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1">
+        <v>64</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>75</v>
+      </c>
+      <c r="O27" s="1">
+        <v>8</v>
+      </c>
+      <c r="P27" s="1">
+        <v>86</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>8</v>
+      </c>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="6">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>43</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>54</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>65</v>
+      </c>
+      <c r="M28" s="1">
+        <v>6</v>
+      </c>
+      <c r="N28" s="1">
+        <v>76</v>
+      </c>
+      <c r="O28" s="1">
+        <v>7</v>
+      </c>
+      <c r="P28" s="1">
+        <v>87</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>8</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="6">
         <v>11</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C29" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D29" s="1">
         <v>22</v>
       </c>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
         <v>33</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G29" s="1">
         <v>4</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H29" s="1">
         <v>44</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I29" s="1">
         <v>6</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J29" s="1">
         <v>55</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K29" s="1">
         <v>6</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L29" s="1">
         <v>66</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M29" s="1">
         <v>6</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N29" s="1">
         <v>77</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O29" s="1">
         <v>4</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P29" s="1">
         <v>88</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q29" s="1">
         <v>6</v>
       </c>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="12"/>
-      <c r="C26" s="1">
-        <f>SUM(C15:C25)</f>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" s="6"/>
+      <c r="C30" s="1">
+        <f>SUM(C19:C29)</f>
         <v>20</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <f>SUM(E15:E25)</f>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <f>SUM(E19:E29)</f>
         <v>29</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1">
-        <f>SUM(G15:G25)</f>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <f>SUM(G19:G29)</f>
         <v>38</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1">
-        <f>SUM(I15:I25)</f>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <f>SUM(I19:I29)</f>
         <v>48</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1">
-        <f>SUM(K15:K25)</f>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <f>SUM(K19:K29)</f>
         <v>51</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <f>SUM(M15:M25)</f>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
+        <f>SUM(M19:M29)</f>
         <v>61</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1">
-        <f>SUM(O15:O25)</f>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
+        <f>SUM(O19:O29)</f>
         <v>72</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1">
-        <f>SUM(Q15:Q25)</f>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
+        <f>SUM(Q19:Q29)</f>
         <v>82</v>
       </c>
-      <c r="R26" s="11">
-        <f>SUM(B26:Q26)</f>
+      <c r="R30" s="5">
+        <f>SUM(B30:Q30)</f>
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B17:R17"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1877,12 +2117,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1">
+        <v>180</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>195</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1">
+        <v>300</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1">
+        <v>680</v>
+      </c>
+      <c r="H7" s="1">
+        <v>70</v>
+      </c>
+      <c r="I7" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1">
+        <v>1680</v>
+      </c>
+      <c r="H8" s="1">
+        <v>210</v>
+      </c>
+      <c r="I8" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1">
+        <v>3280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>520</v>
+      </c>
+      <c r="I9" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1">
+        <v>500</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1">
+        <v>50</v>
+      </c>
+      <c r="J17" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>195</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>250</v>
+      </c>
+      <c r="I19" s="1">
+        <v>200</v>
+      </c>
+      <c r="J19" s="28">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>790</v>
+      </c>
+      <c r="I20" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
